--- a/result/NCDC_weather_data/stations_imputed/57853099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/57853099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>2.623644</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>6.928521702127661</v>
+      </c>
       <c r="O2" t="n">
         <v>127.76</v>
       </c>
@@ -625,7 +627,9 @@
       <c r="M3" t="n">
         <v>0.720216</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>6.928521702127661</v>
+      </c>
       <c r="O3" t="n">
         <v>127.76</v>
       </c>
@@ -681,7 +685,9 @@
       <c r="M4" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>6.928521702127661</v>
+      </c>
       <c r="O4" t="n">
         <v>126.86</v>
       </c>
